--- a/data/football_rankings.xlsx
+++ b/data/football_rankings.xlsx
@@ -76,28 +76,28 @@
     <t>22DTH3B_2D + 23DTH1A</t>
   </si>
   <si>
+    <t>23DTH2D</t>
+  </si>
+  <si>
     <t>22DTH1A</t>
   </si>
   <si>
+    <t>24DKTPM1A</t>
+  </si>
+  <si>
     <t>24DTH1A + 23DKTPM1A</t>
   </si>
   <si>
-    <t>24DKTPM1A</t>
-  </si>
-  <si>
-    <t>23DTH2D</t>
+    <t>22DTH2C</t>
+  </si>
+  <si>
+    <t>21DTH2C + 20DTH2A</t>
   </si>
   <si>
     <t>23DTH1B</t>
   </si>
   <si>
-    <t>21DTH2C + 20DTH2A</t>
-  </si>
-  <si>
     <t>22DKTPM1A + 24DTH2B</t>
-  </si>
-  <si>
-    <t>22DTH2C</t>
   </si>
 </sst>
 </file>
@@ -501,7 +501,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -510,13 +510,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -533,10 +533,10 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -577,13 +577,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -597,10 +597,10 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -629,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -638,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -693,10 +693,10 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -705,16 +705,16 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -725,10 +725,10 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -737,16 +737,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -757,7 +757,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -798,16 +798,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -821,28 +821,28 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -853,28 +853,28 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -885,28 +885,28 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -917,7 +917,7 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -926,16 +926,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="J15">
         <v>0</v>
